--- a/biology/Botanique/Pedicularis_foliosa/Pedicularis_foliosa.xlsx
+++ b/biology/Botanique/Pedicularis_foliosa/Pedicularis_foliosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Pédiculaire feuillée (Pedicularis foliosa) est une plante herbacée vivace appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] ou à la famille des Orobanchaceae selon la classification phylogénétique.
+La Pédiculaire feuillée (Pedicularis foliosa) est une plante herbacée vivace appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou à la famille des Orobanchaceae selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pédiculaire feuillée est une plante vivace de 20-50 cm de haut qui fleurit entre mai et août. Elle forme des grappes de 20-30 fleurs jaunes longues de 3 cm.
 Comme les autres espèces de pédiculaires, c'est un végétal semi-parasite dont les racines se mêlent à celles des autres plantes pour leur soutirer l'eau et les substances nutritives.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses de montagnes sur sols calcaires, bords des ruisseaux, bosquets de l'étage subalpin, montagnes d'Europe centrale et du Sud.
 Sur les autres projets Wikimedia :
